--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/ABCDE/15/seed2/result_data_KNN.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/ABCDE/15/seed2/result_data_KNN.xlsx
@@ -465,7 +465,7 @@
         <v>-20.51</v>
       </c>
       <c r="B2" t="n">
-        <v>5.734</v>
+        <v>6.108</v>
       </c>
       <c r="C2" t="n">
         <v>-10.94</v>
@@ -479,13 +479,13 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-21.336</v>
+        <v>-21.666</v>
       </c>
       <c r="B3" t="n">
         <v>4.03</v>
       </c>
       <c r="C3" t="n">
-        <v>-12.574</v>
+        <v>-13.204</v>
       </c>
       <c r="D3" t="n">
         <v>-8.949999999999999</v>
@@ -539,7 +539,7 @@
         <v>-15.25</v>
       </c>
       <c r="D6" t="n">
-        <v>-7.834000000000001</v>
+        <v>-7.804</v>
       </c>
       <c r="E6" t="n">
         <v>16.12</v>
@@ -576,7 +576,7 @@
         <v>-8.029999999999999</v>
       </c>
       <c r="E8" t="n">
-        <v>16.456</v>
+        <v>16.777</v>
       </c>
     </row>
     <row r="9">
@@ -638,7 +638,7 @@
         <v>4.54</v>
       </c>
       <c r="C12" t="n">
-        <v>-11.822</v>
+        <v>-11.169</v>
       </c>
       <c r="D12" t="n">
         <v>-6.85</v>
@@ -666,7 +666,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>-21.41</v>
+        <v>-21.603</v>
       </c>
       <c r="B14" t="n">
         <v>4.04</v>
@@ -760,7 +760,7 @@
         <v>-12.15</v>
       </c>
       <c r="D19" t="n">
-        <v>-8.354000000000001</v>
+        <v>-7.859999999999999</v>
       </c>
       <c r="E19" t="n">
         <v>16.87</v>
@@ -785,7 +785,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>-20.306</v>
+        <v>-20.257</v>
       </c>
       <c r="B21" t="n">
         <v>9.52</v>
@@ -819,7 +819,7 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>-20.792</v>
+        <v>-20.775</v>
       </c>
       <c r="B23" t="n">
         <v>7.87</v>
@@ -831,7 +831,7 @@
         <v>-8.59</v>
       </c>
       <c r="E23" t="n">
-        <v>16.472</v>
+        <v>16.46</v>
       </c>
     </row>
     <row r="24">
@@ -842,10 +842,10 @@
         <v>7.41</v>
       </c>
       <c r="C24" t="n">
-        <v>-12.116</v>
+        <v>-12.459</v>
       </c>
       <c r="D24" t="n">
-        <v>-7.597999999999999</v>
+        <v>-7.435</v>
       </c>
       <c r="E24" t="n">
         <v>16.37</v>
@@ -853,13 +853,13 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>-20.614</v>
+        <v>-20.536</v>
       </c>
       <c r="B25" t="n">
-        <v>6.825999999999999</v>
+        <v>6.851000000000001</v>
       </c>
       <c r="C25" t="n">
-        <v>-12.74</v>
+        <v>-12.406</v>
       </c>
       <c r="D25" t="n">
         <v>-7.4</v>
@@ -870,7 +870,7 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>-20.812</v>
+        <v>-21.368</v>
       </c>
       <c r="B26" t="n">
         <v>6.56</v>
@@ -882,7 +882,7 @@
         <v>-9.31</v>
       </c>
       <c r="E26" t="n">
-        <v>16.414</v>
+        <v>16.576</v>
       </c>
     </row>
     <row r="27">
@@ -890,7 +890,7 @@
         <v>-21.86</v>
       </c>
       <c r="B27" t="n">
-        <v>5.964</v>
+        <v>5.626</v>
       </c>
       <c r="C27" t="n">
         <v>-11.92</v>
@@ -921,7 +921,7 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>-21.058</v>
+        <v>-21.279</v>
       </c>
       <c r="B29" t="n">
         <v>7.52</v>
@@ -947,7 +947,7 @@
         <v>-10.71</v>
       </c>
       <c r="D30" t="n">
-        <v>-7.236</v>
+        <v>-7.191</v>
       </c>
       <c r="E30" t="n">
         <v>16.57</v>
@@ -958,13 +958,13 @@
         <v>-21.76</v>
       </c>
       <c r="B31" t="n">
-        <v>4.928</v>
+        <v>5.355</v>
       </c>
       <c r="C31" t="n">
         <v>-11.3</v>
       </c>
       <c r="D31" t="n">
-        <v>-7.923999999999999</v>
+        <v>-8.086</v>
       </c>
       <c r="E31" t="n">
         <v>15.44</v>
@@ -998,7 +998,7 @@
         <v>-12.22</v>
       </c>
       <c r="D33" t="n">
-        <v>-7.962000000000001</v>
+        <v>-7.851999999999999</v>
       </c>
       <c r="E33" t="n">
         <v>17.52</v>
@@ -1069,7 +1069,7 @@
         <v>-7.88</v>
       </c>
       <c r="E37" t="n">
-        <v>16.364</v>
+        <v>16.468</v>
       </c>
     </row>
     <row r="38">
@@ -1094,7 +1094,7 @@
         <v>-18.76</v>
       </c>
       <c r="B39" t="n">
-        <v>7.478</v>
+        <v>7.657999999999999</v>
       </c>
       <c r="C39" t="n">
         <v>-10.58</v>
@@ -1151,7 +1151,7 @@
         <v>-13.45</v>
       </c>
       <c r="D42" t="n">
-        <v>-8.214</v>
+        <v>-8.431000000000001</v>
       </c>
       <c r="E42" t="n">
         <v>16.31</v>
@@ -1247,7 +1247,7 @@
         <v>-21.86</v>
       </c>
       <c r="B48" t="n">
-        <v>5.196</v>
+        <v>5.176</v>
       </c>
       <c r="C48" t="n">
         <v>-10.86</v>
@@ -1256,7 +1256,7 @@
         <v>-6.88</v>
       </c>
       <c r="E48" t="n">
-        <v>17.406</v>
+        <v>17.349</v>
       </c>
     </row>
     <row r="49">
@@ -1284,7 +1284,7 @@
         <v>4.91</v>
       </c>
       <c r="C50" t="n">
-        <v>-12.762</v>
+        <v>-13.133</v>
       </c>
       <c r="D50" t="n">
         <v>-8.029999999999999</v>
@@ -1298,7 +1298,7 @@
         <v>-22</v>
       </c>
       <c r="B51" t="n">
-        <v>5.438000000000001</v>
+        <v>5.42</v>
       </c>
       <c r="C51" t="n">
         <v>-13.17</v>
@@ -1315,7 +1315,7 @@
         <v>-21.69</v>
       </c>
       <c r="B52" t="n">
-        <v>4.586</v>
+        <v>5.358000000000001</v>
       </c>
       <c r="C52" t="n">
         <v>-14.35</v>
@@ -1329,13 +1329,13 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>-21.606</v>
+        <v>-21.642</v>
       </c>
       <c r="B53" t="n">
         <v>5.82</v>
       </c>
       <c r="C53" t="n">
-        <v>-10.426</v>
+        <v>-11.646</v>
       </c>
       <c r="D53" t="n">
         <v>-7.23</v>
@@ -1366,13 +1366,13 @@
         <v>-24</v>
       </c>
       <c r="B55" t="n">
-        <v>4.492</v>
+        <v>4.508</v>
       </c>
       <c r="C55" t="n">
         <v>-15.79</v>
       </c>
       <c r="D55" t="n">
-        <v>-8.065999999999999</v>
+        <v>-8.210000000000001</v>
       </c>
       <c r="E55" t="n">
         <v>16.57</v>
@@ -1383,7 +1383,7 @@
         <v>-21.95</v>
       </c>
       <c r="B56" t="n">
-        <v>5.276000000000001</v>
+        <v>5.144</v>
       </c>
       <c r="C56" t="n">
         <v>-13.63</v>
@@ -1397,13 +1397,13 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>-21.048</v>
+        <v>-21.322</v>
       </c>
       <c r="B57" t="n">
-        <v>6.284</v>
+        <v>7.019</v>
       </c>
       <c r="C57" t="n">
-        <v>-13.872</v>
+        <v>-12.872</v>
       </c>
       <c r="D57" t="n">
         <v>-8.31</v>
@@ -1423,7 +1423,7 @@
         <v>-15.6</v>
       </c>
       <c r="D58" t="n">
-        <v>-7.747999999999999</v>
+        <v>-7.970999999999999</v>
       </c>
       <c r="E58" t="n">
         <v>16.91</v>
@@ -1431,7 +1431,7 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>-21.88</v>
+        <v>-22.097</v>
       </c>
       <c r="B59" t="n">
         <v>4.58</v>
@@ -1471,7 +1471,7 @@
         <v>8.33</v>
       </c>
       <c r="C61" t="n">
-        <v>-12.13</v>
+        <v>-13.025</v>
       </c>
       <c r="D61" t="n">
         <v>-7.97</v>
@@ -1494,7 +1494,7 @@
         <v>-8.5</v>
       </c>
       <c r="E62" t="n">
-        <v>16.712</v>
+        <v>16.656</v>
       </c>
     </row>
     <row r="63">
@@ -1505,7 +1505,7 @@
         <v>4.39</v>
       </c>
       <c r="C63" t="n">
-        <v>-10.938</v>
+        <v>-11.466</v>
       </c>
       <c r="D63" t="n">
         <v>-7.14</v>
@@ -1542,7 +1542,7 @@
         <v>-11.86</v>
       </c>
       <c r="D65" t="n">
-        <v>-7.944</v>
+        <v>-7.869</v>
       </c>
       <c r="E65" t="n">
         <v>17.18</v>
@@ -1562,7 +1562,7 @@
         <v>-7.15</v>
       </c>
       <c r="E66" t="n">
-        <v>16.926</v>
+        <v>17.18</v>
       </c>
     </row>
     <row r="67">
@@ -1601,7 +1601,7 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>-21.652</v>
+        <v>-21.56</v>
       </c>
       <c r="B69" t="n">
         <v>4.98</v>
@@ -1624,10 +1624,10 @@
         <v>4.05</v>
       </c>
       <c r="C70" t="n">
-        <v>-12.194</v>
+        <v>-12.201</v>
       </c>
       <c r="D70" t="n">
-        <v>-7.715999999999999</v>
+        <v>-7.449000000000001</v>
       </c>
       <c r="E70" t="n">
         <v>17.62</v>
@@ -1672,7 +1672,7 @@
         <v>-20.59</v>
       </c>
       <c r="B73" t="n">
-        <v>7.07</v>
+        <v>6.981</v>
       </c>
       <c r="C73" t="n">
         <v>-15.02</v>
@@ -1712,7 +1712,7 @@
         <v>-14.77</v>
       </c>
       <c r="D75" t="n">
-        <v>-7.907999999999999</v>
+        <v>-7.645</v>
       </c>
       <c r="E75" t="n">
         <v>16.51</v>
@@ -1771,7 +1771,7 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>-21.426</v>
+        <v>-21.215</v>
       </c>
       <c r="B79" t="n">
         <v>8.949999999999999</v>
@@ -1839,7 +1839,7 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>-22.3</v>
+        <v>-22.185</v>
       </c>
       <c r="B83" t="n">
         <v>5.84</v>
@@ -1848,7 +1848,7 @@
         <v>-13.03</v>
       </c>
       <c r="D83" t="n">
-        <v>-8.704000000000001</v>
+        <v>-8.397</v>
       </c>
       <c r="E83" t="n">
         <v>16.38</v>
@@ -1896,10 +1896,10 @@
         <v>4.69</v>
       </c>
       <c r="C86" t="n">
-        <v>-13.054</v>
+        <v>-12.416</v>
       </c>
       <c r="D86" t="n">
-        <v>-8.336000000000002</v>
+        <v>-7.851000000000001</v>
       </c>
       <c r="E86" t="n">
         <v>17.03</v>
@@ -1944,7 +1944,7 @@
         <v>-21.45</v>
       </c>
       <c r="B89" t="n">
-        <v>4.962</v>
+        <v>4.999999999999999</v>
       </c>
       <c r="C89" t="n">
         <v>-10.11</v>
@@ -1953,7 +1953,7 @@
         <v>-7</v>
       </c>
       <c r="E89" t="n">
-        <v>17.458</v>
+        <v>17.081</v>
       </c>
     </row>
     <row r="90">
@@ -1961,7 +1961,7 @@
         <v>-21.82</v>
       </c>
       <c r="B90" t="n">
-        <v>5.612</v>
+        <v>5.917</v>
       </c>
       <c r="C90" t="n">
         <v>-12.06</v>
@@ -1975,7 +1975,7 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>-21.494</v>
+        <v>-21.527</v>
       </c>
       <c r="B91" t="n">
         <v>4.28</v>
@@ -1995,7 +1995,7 @@
         <v>-21.6</v>
       </c>
       <c r="B92" t="n">
-        <v>5.639999999999999</v>
+        <v>6.058999999999999</v>
       </c>
       <c r="C92" t="n">
         <v>-9.49</v>
@@ -2009,7 +2009,7 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>-21.886</v>
+        <v>-21.439</v>
       </c>
       <c r="B93" t="n">
         <v>7.55</v>
@@ -2038,7 +2038,7 @@
         <v>-5.14</v>
       </c>
       <c r="E94" t="n">
-        <v>17.798</v>
+        <v>17.498</v>
       </c>
     </row>
     <row r="95">
@@ -2069,7 +2069,7 @@
         <v>-10.59</v>
       </c>
       <c r="D96" t="n">
-        <v>-7.692</v>
+        <v>-7.519</v>
       </c>
       <c r="E96" t="n">
         <v>16.3</v>
@@ -2086,7 +2086,7 @@
         <v>-13.93</v>
       </c>
       <c r="D97" t="n">
-        <v>-8.257999999999999</v>
+        <v>-8.17</v>
       </c>
       <c r="E97" t="n">
         <v>15.78</v>
@@ -2100,7 +2100,7 @@
         <v>4.73</v>
       </c>
       <c r="C98" t="n">
-        <v>-13.39</v>
+        <v>-12.45</v>
       </c>
       <c r="D98" t="n">
         <v>-9.33</v>
@@ -2134,7 +2134,7 @@
         <v>5.09</v>
       </c>
       <c r="C100" t="n">
-        <v>-12.558</v>
+        <v>-12.183</v>
       </c>
       <c r="D100" t="n">
         <v>-7.71</v>
@@ -2168,7 +2168,7 @@
         <v>9.01</v>
       </c>
       <c r="C102" t="n">
-        <v>-13.826</v>
+        <v>-13.143</v>
       </c>
       <c r="D102" t="n">
         <v>-8.630000000000001</v>
